--- a/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,132 +512,182 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>85.62</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.23</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2161</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>006008</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>诺安积极配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>85.62</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.23</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>004436</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>汇添富年年泰定期开放混合A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>28.56</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.70</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>004437</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>汇添富年年泰定期开放混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>28.56</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.70</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>320012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安主题精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320012</t>
+          <t>952004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安主题精选混合</t>
+          <t>国泰君安君得明混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>75.21</t>
+          <t>51.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>233011</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大摩主题优选混合</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>26.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000880</t>
+          <t>006007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国研究精选灵活配置混合</t>
+          <t>诺安积极配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006401</t>
+          <t>320012</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合A</t>
+          <t>诺安主题精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3599</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006402</t>
+          <t>000880</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合C</t>
+          <t>富国研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006007</t>
+          <t>233011</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安积极配置混合A</t>
+          <t>大摩主题优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006008</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺安积极配置混合C</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>006008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>诺安积极配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>66.16</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>001540</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>浙商汇金转型驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>66.16</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>004436</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>汇添富年年泰定期开放混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>510190</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安上证龙头ETF</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>98.03</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001540</t>
+          <t>510190</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙商汇金转型驱动灵活配置混合</t>
+          <t>华安上证龙头ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>89.84</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.02</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>89.84</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1.02</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004436</t>
+          <t>004437</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>汇添富年年泰定期开放混合A</t>
+          <t>汇添富年年泰定期开放混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>25.07</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>0.98</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004437</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇添富年年泰定期开放混合C</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1154,26 +1394,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>952004</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国泰君安君得明混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>85.79</t>
-        </is>
-      </c>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1402,7 +1403,6 @@
           <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>93.83</t>
@@ -1418,6 +1418,1200 @@
       </c>
       <c r="H19" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>196.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3946</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4700</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4510</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>61.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2617,4 +2618,856 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7957</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6535</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5912</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3507</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3470,4 +3471,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3479,7 +3480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3490,17 +3491,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3510,14 +3531,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.64</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3526,14 +3569,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.72</v>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3542,14 +3607,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.67</v>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3558,13 +3645,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3916,7 +3917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,17 +3928,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3947,14 +3968,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.83</v>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3963,14 +4006,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.64</v>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3979,14 +4044,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.72</v>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3995,14 +4082,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.67</v>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4011,13 +4120,507 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4503,7 +4504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4514,17 +4515,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4534,14 +4555,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.01</v>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4211</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4550,14 +4593,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.83</v>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7263</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4566,14 +4631,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.64</v>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5209</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4582,14 +4669,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.72</v>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4598,14 +4707,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.67</v>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4614,13 +4745,829 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>3.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>8.83</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>13.64</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>18.72</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>3.67</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.64</v>
       </c>
     </row>
@@ -600,6 +617,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012203</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1529,7 +2172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2115,7 +2758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2551,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3403,7 +4046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4597,7 +5240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5330,7 +5973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
+++ b/数据整理/stocks/A股/上证主板/600315-上海家化.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>3.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>8.83</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>13.64</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>18.72</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>3.67</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,276 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2161</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +880,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1242,7 +2055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2172,7 +2985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2758,7 +3571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3194,7 +4007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4046,7 +4859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5240,7 +6053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5971,250 +6784,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2161</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>320012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安主题精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3473</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0473</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004436</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富年年泰定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004437</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富年年泰定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>